--- a/biology/Médecine/Rameau_postérieur_du_nerf_obturateur/Rameau_postérieur_du_nerf_obturateur.xlsx
+++ b/biology/Médecine/Rameau_postérieur_du_nerf_obturateur/Rameau_postérieur_du_nerf_obturateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_post%C3%A9rieur_du_nerf_obturateur</t>
+          <t>Rameau_postérieur_du_nerf_obturateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le rameau postérieur du nerf obturateur est un nerf mixte du membre inférieur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_post%C3%A9rieur_du_nerf_obturateur</t>
+          <t>Rameau_postérieur_du_nerf_obturateur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau postérieur du nerf obturateur est une branche terminale qui nait de la division du nerf obturateur entre le muscle pectiné à l'avant et le muscle obturateur externe à l'arrière.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_post%C3%A9rieur_du_nerf_obturateur</t>
+          <t>Rameau_postérieur_du_nerf_obturateur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rameau postérieur du nerf obturateur descend derrière le muscle court adducteur et devant le muscle grand adducteur, où il se divise en de nombreuses branches musculaires qui se distribuent à ces deux muscles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rameau postérieur du nerf obturateur descend derrière le muscle court adducteur et devant le muscle grand adducteur, où il se divise en de nombreuses branches musculaires qui se distribuent à ces deux muscles.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rameau_post%C3%A9rieur_du_nerf_obturateur</t>
+          <t>Rameau_postérieur_du_nerf_obturateur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par ses rameaux musculaires, il innerve le muscle court adducteur et les faisceaux supérieur et moyen du muscle grand adducteur.
 Il émet généralement une branche articulaire qui pénètre dans la fosse poplitée et qui innerve l'articulation fémoro-tibiale et l'artère poplitée.
